--- a/biology/Zoologie/Bombus_fraternus/Bombus_fraternus.xlsx
+++ b/biology/Zoologie/Bombus_fraternus/Bombus_fraternus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bombus fraternus est une espèce de bourdons que l'on trouve dans le sud-est des États-Unis (du New Jersey à la Floride, du Dakota du Nord au Nouveau-Mexique, en passant par le Nebraska et le Colorado)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bombus fraternus est une espèce de bourdons que l'on trouve dans le sud-est des États-Unis (du New Jersey à la Floride, du Dakota du Nord au Nouveau-Mexique, en passant par le Nebraska et le Colorado).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bombus fraternus[2], un mâle décrit sous le protonyme de Apathus fraternus, mesure 21 mm[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bombus fraternus, un mâle décrit sous le protonyme de Apathus fraternus, mesure 21 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce possédant une langue courte. Elle se nourrit notamment de d'asclépiades, de Cassia, de Dalea, de Liatris, de mélilots, de Ratibida et de solidages[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce possédant une langue courte. Elle se nourrit notamment de d'asclépiades, de Cassia, de Dalea, de Liatris, de mélilots, de Ratibida et de solidages. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frederick Smith, British Museum (Natural History). Department of Zoology., Catalogue of hymenopterous insects in the collection of the British Museum,  (publication), Inconnu, Londres, 1853, vol. 2</t>
         </is>
